--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3177,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>754.9433075162348</v>
+        <v>950.5780822779358</v>
       </c>
       <c r="AB2" t="n">
-        <v>1032.946739091839</v>
+        <v>1300.62286871793</v>
       </c>
       <c r="AC2" t="n">
-        <v>934.3637520627668</v>
+        <v>1176.493247563151</v>
       </c>
       <c r="AD2" t="n">
-        <v>754943.3075162348</v>
+        <v>950578.0822779358</v>
       </c>
       <c r="AE2" t="n">
-        <v>1032946.739091839</v>
+        <v>1300622.86871793</v>
       </c>
       <c r="AF2" t="n">
         <v>4.091381818413375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.35648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>934363.7520627668</v>
+        <v>1176493.24756315</v>
       </c>
     </row>
     <row r="3">
@@ -3283,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.8238257646119</v>
+        <v>627.8631235494886</v>
       </c>
       <c r="AB3" t="n">
-        <v>671.5668120300998</v>
+        <v>859.070025006499</v>
       </c>
       <c r="AC3" t="n">
-        <v>607.4734180398867</v>
+        <v>777.0815875322306</v>
       </c>
       <c r="AD3" t="n">
-        <v>490823.8257646118</v>
+        <v>627863.1235494886</v>
       </c>
       <c r="AE3" t="n">
-        <v>671566.8120300998</v>
+        <v>859070.025006499</v>
       </c>
       <c r="AF3" t="n">
         <v>5.67363772830192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>607473.4180398867</v>
+        <v>777081.5875322307</v>
       </c>
     </row>
     <row r="4">
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.4024962049439</v>
+        <v>553.6191073006917</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.4227068580852</v>
+        <v>757.4860865600654</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.7416625544606</v>
+        <v>685.1926775971714</v>
       </c>
       <c r="AD4" t="n">
-        <v>426402.4962049439</v>
+        <v>553619.1073006917</v>
       </c>
       <c r="AE4" t="n">
-        <v>583422.7068580852</v>
+        <v>757486.0865600654</v>
       </c>
       <c r="AF4" t="n">
         <v>6.287256856879711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>527741.6625544606</v>
+        <v>685192.6775971714</v>
       </c>
     </row>
     <row r="5">
@@ -3495,28 +3495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.9630878227606</v>
+        <v>517.4253430669407</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.2471418852062</v>
+        <v>707.9641815792627</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.0186427298689</v>
+        <v>640.3970737233067</v>
       </c>
       <c r="AD5" t="n">
-        <v>399963.0878227606</v>
+        <v>517425.3430669408</v>
       </c>
       <c r="AE5" t="n">
-        <v>547247.1418852062</v>
+        <v>707964.1815792627</v>
       </c>
       <c r="AF5" t="n">
         <v>6.614203977100939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.72685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>495018.6427298689</v>
+        <v>640397.0737233066</v>
       </c>
     </row>
     <row r="6">
@@ -3601,28 +3601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.5894680175739</v>
+        <v>497.2300476024823</v>
       </c>
       <c r="AB6" t="n">
-        <v>533.0534976159436</v>
+        <v>680.332087371235</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.1796199487599</v>
+        <v>615.4021478046052</v>
       </c>
       <c r="AD6" t="n">
-        <v>389589.4680175739</v>
+        <v>497230.0476024823</v>
       </c>
       <c r="AE6" t="n">
-        <v>533053.4976159435</v>
+        <v>680332.087371235</v>
       </c>
       <c r="AF6" t="n">
         <v>6.818834090918372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>482179.6199487598</v>
+        <v>615402.1478046052</v>
       </c>
     </row>
     <row r="7">
@@ -3707,28 +3707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>371.2356065860566</v>
+        <v>488.663696411456</v>
       </c>
       <c r="AB7" t="n">
-        <v>507.940934690122</v>
+        <v>668.6112277509307</v>
       </c>
       <c r="AC7" t="n">
-        <v>459.4637647828753</v>
+        <v>604.799910576133</v>
       </c>
       <c r="AD7" t="n">
-        <v>371235.6065860566</v>
+        <v>488663.696411456</v>
       </c>
       <c r="AE7" t="n">
-        <v>507940.934690122</v>
+        <v>668611.2277509307</v>
       </c>
       <c r="AF7" t="n">
         <v>6.967594352586844e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.52314814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>459463.7647828753</v>
+        <v>604799.9105761331</v>
       </c>
     </row>
     <row r="8">
@@ -3813,28 +3813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>364.8991972225166</v>
+        <v>472.505611388644</v>
       </c>
       <c r="AB8" t="n">
-        <v>499.2711798562745</v>
+        <v>646.5030229783182</v>
       </c>
       <c r="AC8" t="n">
-        <v>451.6214391822928</v>
+        <v>584.8016818379583</v>
       </c>
       <c r="AD8" t="n">
-        <v>364899.1972225166</v>
+        <v>472505.611388644</v>
       </c>
       <c r="AE8" t="n">
-        <v>499271.1798562745</v>
+        <v>646503.0229783182</v>
       </c>
       <c r="AF8" t="n">
         <v>7.067807509718111e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>451621.4391822928</v>
+        <v>584801.6818379583</v>
       </c>
     </row>
     <row r="9">
@@ -3919,28 +3919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>349.2386430635241</v>
+        <v>466.6325674701426</v>
       </c>
       <c r="AB9" t="n">
-        <v>477.8437187610523</v>
+        <v>638.4672651886133</v>
       </c>
       <c r="AC9" t="n">
-        <v>432.2389849003682</v>
+        <v>577.532845493446</v>
       </c>
       <c r="AD9" t="n">
-        <v>349238.6430635241</v>
+        <v>466632.5674701426</v>
       </c>
       <c r="AE9" t="n">
-        <v>477843.7187610524</v>
+        <v>638467.2651886133</v>
       </c>
       <c r="AF9" t="n">
         <v>7.138729676402352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.99074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>432238.9849003682</v>
+        <v>577532.845493446</v>
       </c>
     </row>
     <row r="10">
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>348.0287554740401</v>
+        <v>465.4226798806586</v>
       </c>
       <c r="AB10" t="n">
-        <v>476.188297184647</v>
+        <v>636.8118436122079</v>
       </c>
       <c r="AC10" t="n">
-        <v>430.7415544358162</v>
+        <v>576.035415028894</v>
       </c>
       <c r="AD10" t="n">
-        <v>348028.7554740401</v>
+        <v>465422.6798806586</v>
       </c>
       <c r="AE10" t="n">
-        <v>476188.297184647</v>
+        <v>636811.8436122079</v>
       </c>
       <c r="AF10" t="n">
         <v>7.159070641990566e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>430741.5544358162</v>
+        <v>576035.415028894</v>
       </c>
     </row>
     <row r="11">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>348.5711256550819</v>
+        <v>465.9650500617005</v>
       </c>
       <c r="AB11" t="n">
-        <v>476.9303919940322</v>
+        <v>637.5539384215931</v>
       </c>
       <c r="AC11" t="n">
-        <v>431.4128247581302</v>
+        <v>576.706685351208</v>
       </c>
       <c r="AD11" t="n">
-        <v>348571.1256550819</v>
+        <v>465965.0500617005</v>
       </c>
       <c r="AE11" t="n">
-        <v>476930.3919940322</v>
+        <v>637553.938421593</v>
       </c>
       <c r="AF11" t="n">
         <v>7.159477461302331e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>431412.8247581302</v>
+        <v>576706.685351208</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.3059518968076</v>
+        <v>767.8752874486456</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.4698193653492</v>
+        <v>1050.640844554053</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.6881383592873</v>
+        <v>950.3691569335</v>
       </c>
       <c r="AD2" t="n">
-        <v>603305.9518968076</v>
+        <v>767875.2874486456</v>
       </c>
       <c r="AE2" t="n">
-        <v>825469.8193653491</v>
+        <v>1050640.844554053</v>
       </c>
       <c r="AF2" t="n">
         <v>5.117422891068214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>746688.1383592873</v>
+        <v>950369.1569335</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.8132048837271</v>
+        <v>561.2725621476791</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.6164124746979</v>
+        <v>767.9578811283114</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.0123197753826</v>
+        <v>694.6650587890801</v>
       </c>
       <c r="AD3" t="n">
-        <v>425813.2048837271</v>
+        <v>561272.562147679</v>
       </c>
       <c r="AE3" t="n">
-        <v>582616.4124746979</v>
+        <v>767957.8811283114</v>
       </c>
       <c r="AF3" t="n">
         <v>6.668719139904602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.75231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>527012.3197753826</v>
+        <v>694665.0587890801</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.6044573143835</v>
+        <v>496.7710471156809</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.7598095811419</v>
+        <v>679.7040626555212</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.0592242457002</v>
+        <v>614.8340608863209</v>
       </c>
       <c r="AD4" t="n">
-        <v>380604.4573143835</v>
+        <v>496771.0471156809</v>
       </c>
       <c r="AE4" t="n">
-        <v>520759.8095811419</v>
+        <v>679704.0626555212</v>
       </c>
       <c r="AF4" t="n">
         <v>7.256000876192926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.66898148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>471059.2242457002</v>
+        <v>614834.0608863209</v>
       </c>
     </row>
     <row r="5">
@@ -4746,28 +4746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.4318939999803</v>
+        <v>474.5643183824969</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.422330269919</v>
+        <v>649.3198367110502</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.6171113810206</v>
+        <v>587.3496628214615</v>
       </c>
       <c r="AD5" t="n">
-        <v>358431.8939999803</v>
+        <v>474564.3183824969</v>
       </c>
       <c r="AE5" t="n">
-        <v>490422.330269919</v>
+        <v>649319.8367110502</v>
       </c>
       <c r="AF5" t="n">
         <v>7.542816337599021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.76620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>443617.1113810206</v>
+        <v>587349.6628214614</v>
       </c>
     </row>
     <row r="6">
@@ -4852,28 +4852,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.596950300842</v>
+        <v>455.0156711443267</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.965726413664</v>
+        <v>622.5725151343366</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.4447869103445</v>
+        <v>563.1550680759277</v>
       </c>
       <c r="AD6" t="n">
-        <v>348596.9503008419</v>
+        <v>455015.6711443267</v>
       </c>
       <c r="AE6" t="n">
-        <v>476965.726413664</v>
+        <v>622572.5151343367</v>
       </c>
       <c r="AF6" t="n">
         <v>7.736153402375092e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.19907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>431444.7869103446</v>
+        <v>563155.0680759277</v>
       </c>
     </row>
     <row r="7">
@@ -4958,28 +4958,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.3998033725262</v>
+        <v>448.498062336262</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.8040754186516</v>
+        <v>613.6548352265352</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.3982127822237</v>
+        <v>555.0884790224845</v>
       </c>
       <c r="AD7" t="n">
-        <v>332399.8033725262</v>
+        <v>448498.062336262</v>
       </c>
       <c r="AE7" t="n">
-        <v>454804.0754186516</v>
+        <v>613654.8352265352</v>
       </c>
       <c r="AF7" t="n">
         <v>7.856191533920633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.86342592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>411398.2127822237</v>
+        <v>555088.4790224845</v>
       </c>
     </row>
     <row r="8">
@@ -5064,28 +5064,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>332.8477853342327</v>
+        <v>448.9460442979684</v>
       </c>
       <c r="AB8" t="n">
-        <v>455.4170241022277</v>
+        <v>614.2677839101113</v>
       </c>
       <c r="AC8" t="n">
-        <v>411.9526625037181</v>
+        <v>555.6429287439788</v>
       </c>
       <c r="AD8" t="n">
-        <v>332847.7853342327</v>
+        <v>448946.0442979684</v>
       </c>
       <c r="AE8" t="n">
-        <v>455417.0241022278</v>
+        <v>614267.7839101113</v>
       </c>
       <c r="AF8" t="n">
         <v>7.856785047550031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.86342592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>411952.6625037181</v>
+        <v>555642.9287439788</v>
       </c>
     </row>
   </sheetData>
@@ -5361,28 +5361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.6484780146979</v>
+        <v>470.8811045024925</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.7186700738678</v>
+        <v>644.2803009885</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.8851689299962</v>
+        <v>582.7910933152385</v>
       </c>
       <c r="AD2" t="n">
-        <v>358648.4780146979</v>
+        <v>470881.1045024925</v>
       </c>
       <c r="AE2" t="n">
-        <v>490718.6700738678</v>
+        <v>644280.3009885</v>
       </c>
       <c r="AF2" t="n">
         <v>9.567380459145948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>443885.1689299962</v>
+        <v>582791.0933152385</v>
       </c>
     </row>
     <row r="3">
@@ -5467,28 +5467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.1634504242412</v>
+        <v>406.0064297535285</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.8016074979467</v>
+        <v>555.5159089283123</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.2135242560545</v>
+        <v>502.4982502516684</v>
       </c>
       <c r="AD3" t="n">
-        <v>303163.4504242412</v>
+        <v>406006.4297535285</v>
       </c>
       <c r="AE3" t="n">
-        <v>414801.6074979467</v>
+        <v>555515.9089283124</v>
       </c>
       <c r="AF3" t="n">
         <v>1.074000380661509e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>375213.5242560545</v>
+        <v>502498.2502516684</v>
       </c>
     </row>
     <row r="4">
@@ -5573,28 +5573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.8542131448952</v>
+        <v>406.6971924741825</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.746739526646</v>
+        <v>556.4610409570116</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.0684542104358</v>
+        <v>503.3531802060497</v>
       </c>
       <c r="AD4" t="n">
-        <v>303854.2131448952</v>
+        <v>406697.1924741825</v>
       </c>
       <c r="AE4" t="n">
-        <v>415746.739526646</v>
+        <v>556461.0409570116</v>
       </c>
       <c r="AF4" t="n">
         <v>1.073793276573294e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.32638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>376068.4542104359</v>
+        <v>503353.1802060497</v>
       </c>
     </row>
   </sheetData>
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.230782503091</v>
+        <v>560.9867643017953</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.9242488295089</v>
+        <v>767.5668399070623</v>
       </c>
       <c r="AC2" t="n">
-        <v>530.004460871068</v>
+        <v>694.3113379931573</v>
       </c>
       <c r="AD2" t="n">
-        <v>428230.782503091</v>
+        <v>560986.7643017954</v>
       </c>
       <c r="AE2" t="n">
-        <v>585924.2488295089</v>
+        <v>767566.8399070624</v>
       </c>
       <c r="AF2" t="n">
         <v>7.498526948184559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.68518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>530004.4608710679</v>
+        <v>694311.3379931573</v>
       </c>
     </row>
     <row r="3">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.5481275204384</v>
+        <v>456.2374838356998</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.6894602302884</v>
+        <v>624.2442531612451</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.9583959556979</v>
+        <v>564.6672577718469</v>
       </c>
       <c r="AD3" t="n">
-        <v>342548.1275204384</v>
+        <v>456237.4838356998</v>
       </c>
       <c r="AE3" t="n">
-        <v>468689.4602302884</v>
+        <v>624244.253161245</v>
       </c>
       <c r="AF3" t="n">
         <v>8.951277989354998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.19444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>423958.3959556979</v>
+        <v>564667.257771847</v>
       </c>
     </row>
     <row r="4">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.4888806684234</v>
+        <v>421.7298322739867</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.4022931514154</v>
+        <v>577.0293619243658</v>
       </c>
       <c r="AC4" t="n">
-        <v>392.9435479804912</v>
+        <v>521.9584894880994</v>
       </c>
       <c r="AD4" t="n">
-        <v>317488.8806684234</v>
+        <v>421729.8322739868</v>
       </c>
       <c r="AE4" t="n">
-        <v>434402.2931514154</v>
+        <v>577029.3619243659</v>
       </c>
       <c r="AF4" t="n">
         <v>9.429968425019678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>392943.5479804912</v>
+        <v>521958.4894880995</v>
       </c>
     </row>
     <row r="5">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.2676418507507</v>
+        <v>421.9901525549358</v>
       </c>
       <c r="AB5" t="n">
-        <v>421.7853873887303</v>
+        <v>577.3855436172805</v>
       </c>
       <c r="AC5" t="n">
-        <v>381.5307819958584</v>
+        <v>522.2806777001466</v>
       </c>
       <c r="AD5" t="n">
-        <v>308267.6418507508</v>
+        <v>421990.1525549358</v>
       </c>
       <c r="AE5" t="n">
-        <v>421785.3873887303</v>
+        <v>577385.5436172805</v>
       </c>
       <c r="AF5" t="n">
         <v>9.442702415627467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>381530.7819958584</v>
+        <v>522280.6777001466</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.7389611851086</v>
+        <v>416.6523942527495</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.3255349444811</v>
+        <v>570.0821872229525</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.4011330129549</v>
+        <v>515.6743433897683</v>
       </c>
       <c r="AD2" t="n">
-        <v>305738.9611851086</v>
+        <v>416652.3942527495</v>
       </c>
       <c r="AE2" t="n">
-        <v>418325.5349444811</v>
+        <v>570082.1872229525</v>
       </c>
       <c r="AF2" t="n">
         <v>1.177792524905478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.31018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>378401.1330129548</v>
+        <v>515674.3433897683</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.3435167349933</v>
+        <v>404.3242696103385</v>
       </c>
       <c r="AB3" t="n">
-        <v>401.3655409994188</v>
+        <v>553.2143032087318</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.0597770865083</v>
+        <v>500.4163065516407</v>
       </c>
       <c r="AD3" t="n">
-        <v>293343.5167349933</v>
+        <v>404324.2696103386</v>
       </c>
       <c r="AE3" t="n">
-        <v>401365.5409994188</v>
+        <v>553214.3032087318</v>
       </c>
       <c r="AF3" t="n">
         <v>1.197813005269214e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>363059.7770865083</v>
+        <v>500416.3065516407</v>
       </c>
     </row>
   </sheetData>
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.1180880567991</v>
+        <v>811.8446392169001</v>
       </c>
       <c r="AB2" t="n">
-        <v>871.7330757456189</v>
+        <v>1110.801651434275</v>
       </c>
       <c r="AC2" t="n">
-        <v>788.5360944815124</v>
+        <v>1004.788300841297</v>
       </c>
       <c r="AD2" t="n">
-        <v>637118.0880567991</v>
+        <v>811844.6392169001</v>
       </c>
       <c r="AE2" t="n">
-        <v>871733.0757456189</v>
+        <v>1110801.651434275</v>
       </c>
       <c r="AF2" t="n">
         <v>4.825837977993981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>788536.0944815123</v>
+        <v>1004788.300841297</v>
       </c>
     </row>
     <row r="3">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.309190610532</v>
+        <v>573.4579438875755</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.0281684820724</v>
+        <v>784.6304580059394</v>
       </c>
       <c r="AC3" t="n">
-        <v>553.6170590690722</v>
+        <v>709.746428329616</v>
       </c>
       <c r="AD3" t="n">
-        <v>447309.190610532</v>
+        <v>573457.9438875755</v>
       </c>
       <c r="AE3" t="n">
-        <v>612028.1684820724</v>
+        <v>784630.4580059394</v>
       </c>
       <c r="AF3" t="n">
         <v>6.377739668657952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>553617.0590690721</v>
+        <v>709746.4283296161</v>
       </c>
     </row>
     <row r="4">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.3948724408519</v>
+        <v>515.5426146880383</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.7872433629213</v>
+        <v>705.3881495511342</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.938776627956</v>
+        <v>638.066894576459</v>
       </c>
       <c r="AD4" t="n">
-        <v>389394.8724408519</v>
+        <v>515542.6146880382</v>
       </c>
       <c r="AE4" t="n">
-        <v>532787.2433629213</v>
+        <v>705388.1495511342</v>
       </c>
       <c r="AF4" t="n">
         <v>6.991955657816057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.96990740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>481938.776627956</v>
+        <v>638066.8945764591</v>
       </c>
     </row>
     <row r="5">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.3380001146178</v>
+        <v>481.8109790817582</v>
       </c>
       <c r="AB5" t="n">
-        <v>499.8715693318647</v>
+        <v>659.2350375798864</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.1645283289847</v>
+        <v>596.3185708354476</v>
       </c>
       <c r="AD5" t="n">
-        <v>365338.0001146179</v>
+        <v>481810.9790817582</v>
       </c>
       <c r="AE5" t="n">
-        <v>499871.5693318648</v>
+        <v>659235.0375798864</v>
       </c>
       <c r="AF5" t="n">
         <v>7.310357581474395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.92824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>452164.5283289847</v>
+        <v>596318.5708354476</v>
       </c>
     </row>
     <row r="6">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>356.142635910591</v>
+        <v>462.8735317899811</v>
       </c>
       <c r="AB6" t="n">
-        <v>487.2900663570774</v>
+        <v>633.3239867340661</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.7837863398607</v>
+        <v>572.8804343159642</v>
       </c>
       <c r="AD6" t="n">
-        <v>356142.6359105911</v>
+        <v>462873.5317899811</v>
       </c>
       <c r="AE6" t="n">
-        <v>487290.0663570774</v>
+        <v>633323.9867340662</v>
       </c>
       <c r="AF6" t="n">
         <v>7.489902095042535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.37268518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>440783.7863398608</v>
+        <v>572880.4343159642</v>
       </c>
     </row>
     <row r="7">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>348.6750080896475</v>
+        <v>455.4059039690375</v>
       </c>
       <c r="AB7" t="n">
-        <v>477.0725285239744</v>
+        <v>623.1064489009631</v>
       </c>
       <c r="AC7" t="n">
-        <v>431.5413959771446</v>
+        <v>563.638043953248</v>
       </c>
       <c r="AD7" t="n">
-        <v>348675.0080896475</v>
+        <v>455405.9039690375</v>
       </c>
       <c r="AE7" t="n">
-        <v>477072.5285239744</v>
+        <v>623106.4489009631</v>
       </c>
       <c r="AF7" t="n">
         <v>7.616596812278118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.00231481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>431541.3959771446</v>
+        <v>563638.0439532481</v>
       </c>
     </row>
     <row r="8">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.3020227341519</v>
+        <v>452.7408362825115</v>
       </c>
       <c r="AB8" t="n">
-        <v>460.1432641029961</v>
+        <v>619.4599857177699</v>
       </c>
       <c r="AC8" t="n">
-        <v>416.2278367921327</v>
+        <v>560.3395940984155</v>
       </c>
       <c r="AD8" t="n">
-        <v>336302.0227341519</v>
+        <v>452740.8362825115</v>
       </c>
       <c r="AE8" t="n">
-        <v>460143.2641029961</v>
+        <v>619459.9857177698</v>
       </c>
       <c r="AF8" t="n">
         <v>7.659455825194383e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>416227.8367921327</v>
+        <v>560339.5940984156</v>
       </c>
     </row>
   </sheetData>
@@ -7821,28 +7821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.2839226043253</v>
+        <v>406.456657735382</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.3887340313904</v>
+        <v>556.1319307157407</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.6990022220954</v>
+        <v>503.0554797842967</v>
       </c>
       <c r="AD2" t="n">
-        <v>296283.9226043252</v>
+        <v>406456.657735382</v>
       </c>
       <c r="AE2" t="n">
-        <v>405388.7340313904</v>
+        <v>556131.9307157408</v>
       </c>
       <c r="AF2" t="n">
         <v>1.279689483140908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.47222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>366699.0022220954</v>
+        <v>503055.4797842967</v>
       </c>
     </row>
     <row r="3">
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.7476704849697</v>
+        <v>406.9204056160265</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.0232543408008</v>
+        <v>556.7664510251514</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.2729648037306</v>
+        <v>503.6294423659319</v>
       </c>
       <c r="AD3" t="n">
-        <v>296747.6704849697</v>
+        <v>406920.4056160265</v>
       </c>
       <c r="AE3" t="n">
-        <v>406023.2543408008</v>
+        <v>556766.4510251513</v>
       </c>
       <c r="AF3" t="n">
         <v>1.282778138189054e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.41435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>367272.9648037306</v>
+        <v>503629.4423659319</v>
       </c>
     </row>
   </sheetData>
@@ -8224,28 +8224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.4488783983478</v>
+        <v>664.7283282905706</v>
       </c>
       <c r="AB2" t="n">
-        <v>699.7869189566811</v>
+        <v>909.5106245112964</v>
       </c>
       <c r="AC2" t="n">
-        <v>633.000237568564</v>
+        <v>822.7082070141165</v>
       </c>
       <c r="AD2" t="n">
-        <v>511448.8783983478</v>
+        <v>664728.3282905706</v>
       </c>
       <c r="AE2" t="n">
-        <v>699786.9189566812</v>
+        <v>909510.6245112964</v>
       </c>
       <c r="AF2" t="n">
         <v>6.131930687874372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>633000.237568564</v>
+        <v>822708.2070141165</v>
       </c>
     </row>
     <row r="3">
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.3125696432678</v>
+        <v>508.8266881847114</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.8334124598917</v>
+        <v>696.1991226235159</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.6486095865484</v>
+        <v>629.7548554819324</v>
       </c>
       <c r="AD3" t="n">
-        <v>384312.5696432678</v>
+        <v>508826.6881847114</v>
       </c>
       <c r="AE3" t="n">
-        <v>525833.4124598918</v>
+        <v>696199.1226235159</v>
       </c>
       <c r="AF3" t="n">
         <v>7.633693852709783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.4675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>475648.6095865484</v>
+        <v>629754.8554819324</v>
       </c>
     </row>
     <row r="4">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.1716422032683</v>
+        <v>459.1988021876043</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.9108246437493</v>
+        <v>628.2960595744659</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.9677564672425</v>
+        <v>568.3323654677361</v>
       </c>
       <c r="AD4" t="n">
-        <v>344171.6422032684</v>
+        <v>459198.8021876042</v>
       </c>
       <c r="AE4" t="n">
-        <v>470910.8246437493</v>
+        <v>628296.0595744658</v>
       </c>
       <c r="AF4" t="n">
         <v>8.202905331603136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.76620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>425967.7564672425</v>
+        <v>568332.365467736</v>
       </c>
     </row>
     <row r="5">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.5570943541047</v>
+        <v>437.9626561659238</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.0192878788357</v>
+        <v>599.2398277149614</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.5928856672602</v>
+        <v>542.0492195962252</v>
       </c>
       <c r="AD5" t="n">
-        <v>332557.0943541047</v>
+        <v>437962.6561659238</v>
       </c>
       <c r="AE5" t="n">
-        <v>455019.2878788357</v>
+        <v>599239.8277149614</v>
       </c>
       <c r="AF5" t="n">
         <v>8.478153285965966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.02546296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>411592.8856672603</v>
+        <v>542049.2195962252</v>
       </c>
     </row>
     <row r="6">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.1085340654878</v>
+        <v>435.1015286310428</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.9866185002301</v>
+        <v>595.3251067976989</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.1857903486473</v>
+        <v>538.5081141489609</v>
       </c>
       <c r="AD6" t="n">
-        <v>320108.5340654878</v>
+        <v>435101.5286310428</v>
       </c>
       <c r="AE6" t="n">
-        <v>437986.6185002301</v>
+        <v>595325.1067976989</v>
       </c>
       <c r="AF6" t="n">
         <v>8.550434108682581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>396185.7903486473</v>
+        <v>538508.1141489609</v>
       </c>
     </row>
     <row r="7">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>320.7285434873505</v>
+        <v>435.7215380529055</v>
       </c>
       <c r="AB7" t="n">
-        <v>438.8349427441079</v>
+        <v>596.1734310415767</v>
       </c>
       <c r="AC7" t="n">
-        <v>396.9531517173198</v>
+        <v>539.2754755176335</v>
       </c>
       <c r="AD7" t="n">
-        <v>320728.5434873505</v>
+        <v>435721.5380529055</v>
       </c>
       <c r="AE7" t="n">
-        <v>438834.9427441079</v>
+        <v>596173.4310415767</v>
       </c>
       <c r="AF7" t="n">
         <v>8.548659356339093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>396953.1517173199</v>
+        <v>539275.4755176335</v>
       </c>
     </row>
   </sheetData>
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.3468388916926</v>
+        <v>736.3812108412209</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.1101951320798</v>
+        <v>1007.549259519175</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.3712572107353</v>
+        <v>911.3901722949313</v>
       </c>
       <c r="AD2" t="n">
-        <v>572346.8388916927</v>
+        <v>736381.2108412209</v>
       </c>
       <c r="AE2" t="n">
-        <v>783110.1951320798</v>
+        <v>1007549.259519175</v>
       </c>
       <c r="AF2" t="n">
         <v>5.418238606601024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.53472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>708371.2572107352</v>
+        <v>911390.1722949313</v>
       </c>
     </row>
     <row r="3">
@@ -9157,28 +9157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.3043036555967</v>
+        <v>539.6669940637008</v>
       </c>
       <c r="AB3" t="n">
-        <v>566.8694260774822</v>
+        <v>738.3961897054198</v>
       </c>
       <c r="AC3" t="n">
-        <v>512.7682036588828</v>
+        <v>667.924693705495</v>
       </c>
       <c r="AD3" t="n">
-        <v>414304.3036555967</v>
+        <v>539666.9940637008</v>
       </c>
       <c r="AE3" t="n">
-        <v>566869.4260774822</v>
+        <v>738396.1897054198</v>
       </c>
       <c r="AF3" t="n">
         <v>6.978772953721173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>512768.2036588829</v>
+        <v>667924.693705495</v>
       </c>
     </row>
     <row r="4">
@@ -9263,28 +9263,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.1693318211009</v>
+        <v>487.8809317957751</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.2184987497596</v>
+        <v>667.5402146706184</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.6193999217335</v>
+        <v>603.8311134810294</v>
       </c>
       <c r="AD4" t="n">
-        <v>372169.3318211009</v>
+        <v>487880.9317957751</v>
       </c>
       <c r="AE4" t="n">
-        <v>509218.4987497596</v>
+        <v>667540.2146706184</v>
       </c>
       <c r="AF4" t="n">
         <v>7.533419786180585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>460619.3999217335</v>
+        <v>603831.1134810294</v>
       </c>
     </row>
     <row r="5">
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.7195479909705</v>
+        <v>465.3969825468637</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.5017140988126</v>
+        <v>636.7766833864234</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.8341820865948</v>
+        <v>576.0036104457107</v>
       </c>
       <c r="AD5" t="n">
-        <v>349719.5479909704</v>
+        <v>465396.9825468637</v>
       </c>
       <c r="AE5" t="n">
-        <v>478501.7140988125</v>
+        <v>636776.6833864234</v>
       </c>
       <c r="AF5" t="n">
         <v>7.833586976399558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>432834.1820865948</v>
+        <v>576003.6104457107</v>
       </c>
     </row>
     <row r="6">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.6176674236366</v>
+        <v>446.3624217872344</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.3656783910916</v>
+        <v>610.7327576095441</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.1925329446623</v>
+        <v>552.4452803920973</v>
       </c>
       <c r="AD6" t="n">
-        <v>330617.6674236366</v>
+        <v>446362.4217872344</v>
       </c>
       <c r="AE6" t="n">
-        <v>452365.6783910916</v>
+        <v>610732.7576095441</v>
       </c>
       <c r="AF6" t="n">
         <v>8.026236137042378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.95601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>409192.5329446623</v>
+        <v>552445.2803920973</v>
       </c>
     </row>
     <row r="7">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>328.396545024051</v>
+        <v>444.1412993876488</v>
       </c>
       <c r="AB7" t="n">
-        <v>449.3266407349742</v>
+        <v>607.6937199534265</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.4435367771285</v>
+        <v>549.6962842245636</v>
       </c>
       <c r="AD7" t="n">
-        <v>328396.545024051</v>
+        <v>444141.2993876488</v>
       </c>
       <c r="AE7" t="n">
-        <v>449326.6407349742</v>
+        <v>607693.7199534265</v>
       </c>
       <c r="AF7" t="n">
         <v>8.068725556662416e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>406443.5367771285</v>
+        <v>549696.2842245635</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.7945542011123</v>
+        <v>902.1869335332797</v>
       </c>
       <c r="AB2" t="n">
-        <v>980.7499318018728</v>
+        <v>1234.41196413868</v>
       </c>
       <c r="AC2" t="n">
-        <v>887.1485348018757</v>
+        <v>1116.601418789357</v>
       </c>
       <c r="AD2" t="n">
-        <v>716794.5542011124</v>
+        <v>902186.9335332797</v>
       </c>
       <c r="AE2" t="n">
-        <v>980749.9318018728</v>
+        <v>1234411.96413868</v>
       </c>
       <c r="AF2" t="n">
         <v>4.322416480795715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>887148.5348018757</v>
+        <v>1116601.418789356</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.5691983962654</v>
+        <v>615.1474028445768</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.7994902287248</v>
+        <v>841.671814960033</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.3063458981512</v>
+        <v>761.3438382340582</v>
       </c>
       <c r="AD3" t="n">
-        <v>478569.1983962654</v>
+        <v>615147.4028445769</v>
       </c>
       <c r="AE3" t="n">
-        <v>654799.4902287248</v>
+        <v>841671.8149600329</v>
       </c>
       <c r="AF3" t="n">
         <v>5.906739528846007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.12962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>592306.3458981512</v>
+        <v>761343.8382340582</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.6291008001518</v>
+        <v>544.5117900793964</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.4185602103603</v>
+        <v>745.0250533514102</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.883174814869</v>
+        <v>673.9209079087805</v>
       </c>
       <c r="AD4" t="n">
-        <v>417629.1008001518</v>
+        <v>544511.7900793965</v>
       </c>
       <c r="AE4" t="n">
-        <v>571418.5602103603</v>
+        <v>745025.0533514102</v>
       </c>
       <c r="AF4" t="n">
         <v>6.499130154729194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.65277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>516883.174814869</v>
+        <v>673920.9079087805</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.2259386324639</v>
+        <v>509.3799583537183</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.6608330241105</v>
+        <v>696.9561312773084</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.4426763284985</v>
+        <v>630.4396162922752</v>
       </c>
       <c r="AD5" t="n">
-        <v>392225.9386324639</v>
+        <v>509379.9583537183</v>
       </c>
       <c r="AE5" t="n">
-        <v>536660.8330241105</v>
+        <v>696956.1312773083</v>
       </c>
       <c r="AF5" t="n">
         <v>6.815745569871714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>485442.6763284985</v>
+        <v>630439.6162922753</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>372.133190541674</v>
+        <v>489.2530448441474</v>
       </c>
       <c r="AB6" t="n">
-        <v>509.1690486568071</v>
+        <v>669.4176002767571</v>
       </c>
       <c r="AC6" t="n">
-        <v>460.5746692762486</v>
+        <v>605.5293240398455</v>
       </c>
       <c r="AD6" t="n">
-        <v>372133.190541674</v>
+        <v>489253.0448441475</v>
       </c>
       <c r="AE6" t="n">
-        <v>509169.0486568071</v>
+        <v>669417.600276757</v>
       </c>
       <c r="AF6" t="n">
         <v>7.021054122847824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.82407407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>460574.6692762487</v>
+        <v>605529.3240398455</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>363.8758204570343</v>
+        <v>471.199685393813</v>
       </c>
       <c r="AB7" t="n">
-        <v>497.8709506175452</v>
+        <v>644.7161974188016</v>
       </c>
       <c r="AC7" t="n">
-        <v>450.3548458568737</v>
+        <v>583.1853884020167</v>
       </c>
       <c r="AD7" t="n">
-        <v>363875.8204570343</v>
+        <v>471199.6853938129</v>
       </c>
       <c r="AE7" t="n">
-        <v>497870.9506175452</v>
+        <v>644716.1974188016</v>
       </c>
       <c r="AF7" t="n">
         <v>7.170709244740724e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>450354.8458568737</v>
+        <v>583185.3884020166</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>357.4469082165909</v>
+        <v>464.7707731533696</v>
       </c>
       <c r="AB8" t="n">
-        <v>489.0746292665796</v>
+        <v>635.9198760678362</v>
       </c>
       <c r="AC8" t="n">
-        <v>442.3980330699298</v>
+        <v>575.2285756150726</v>
       </c>
       <c r="AD8" t="n">
-        <v>357446.9082165909</v>
+        <v>464770.7731533696</v>
       </c>
       <c r="AE8" t="n">
-        <v>489074.6292665796</v>
+        <v>635919.8760678362</v>
       </c>
       <c r="AF8" t="n">
         <v>7.265541583775542e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>442398.0330699298</v>
+        <v>575228.5756150726</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.7717218416331</v>
+        <v>460.8574107253258</v>
       </c>
       <c r="AB9" t="n">
-        <v>470.3636359617187</v>
+        <v>630.5654409484209</v>
       </c>
       <c r="AC9" t="n">
-        <v>425.4727907050409</v>
+        <v>570.3851602684576</v>
       </c>
       <c r="AD9" t="n">
-        <v>343771.7218416331</v>
+        <v>460857.4107253258</v>
       </c>
       <c r="AE9" t="n">
-        <v>470363.6359617187</v>
+        <v>630565.4409484209</v>
       </c>
       <c r="AF9" t="n">
         <v>7.316626449620575e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>425472.7907050409</v>
+        <v>570385.1602684576</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>344.3607421051498</v>
+        <v>461.4464309888425</v>
       </c>
       <c r="AB10" t="n">
-        <v>471.1695594720023</v>
+        <v>631.3713644587045</v>
       </c>
       <c r="AC10" t="n">
-        <v>426.2017980066237</v>
+        <v>571.1141675700405</v>
       </c>
       <c r="AD10" t="n">
-        <v>344360.7421051498</v>
+        <v>461446.4309888425</v>
       </c>
       <c r="AE10" t="n">
-        <v>471169.5594720023</v>
+        <v>631371.3644587045</v>
       </c>
       <c r="AF10" t="n">
         <v>7.315380477282891e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>426201.7980066238</v>
+        <v>571114.1675700406</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.1155515010901</v>
+        <v>597.8775159204001</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.7091758448705</v>
+        <v>818.0423937767353</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.2786860800527</v>
+        <v>739.9695758443935</v>
       </c>
       <c r="AD2" t="n">
-        <v>455115.5515010901</v>
+        <v>597877.5159204002</v>
       </c>
       <c r="AE2" t="n">
-        <v>622709.1758448705</v>
+        <v>818042.3937767353</v>
       </c>
       <c r="AF2" t="n">
         <v>6.993596368593357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.56481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>563278.6860800528</v>
+        <v>739969.5758443935</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.0423880900302</v>
+        <v>467.279291960503</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.0481705157051</v>
+        <v>639.3521421677951</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.9467310840508</v>
+        <v>578.3332710556673</v>
       </c>
       <c r="AD3" t="n">
-        <v>353042.3880900302</v>
+        <v>467279.291960503</v>
       </c>
       <c r="AE3" t="n">
-        <v>483048.1705157051</v>
+        <v>639352.1421677951</v>
       </c>
       <c r="AF3" t="n">
         <v>8.47163692188869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.57638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>436946.7310840508</v>
+        <v>578333.2710556673</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.5744464065492</v>
+        <v>430.2242884801115</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.4653209043041</v>
+        <v>588.6518516545449</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.9507358917011</v>
+        <v>532.4717451106972</v>
       </c>
       <c r="AD4" t="n">
-        <v>325574.4464065492</v>
+        <v>430224.2884801115</v>
       </c>
       <c r="AE4" t="n">
-        <v>445465.320904304</v>
+        <v>588651.8516545449</v>
       </c>
       <c r="AF4" t="n">
         <v>9.014079875999766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.16435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>402950.7358917011</v>
+        <v>532471.7451106971</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.7768817000468</v>
+        <v>425.945454732958</v>
       </c>
       <c r="AB5" t="n">
-        <v>426.586884167273</v>
+        <v>582.7973625528673</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.8740306607999</v>
+        <v>527.1760002320565</v>
       </c>
       <c r="AD5" t="n">
-        <v>311776.8817000468</v>
+        <v>425945.454732958</v>
       </c>
       <c r="AE5" t="n">
-        <v>426586.8841672729</v>
+        <v>582797.3625528673</v>
       </c>
       <c r="AF5" t="n">
         <v>9.120566450192107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>385874.0306607999</v>
+        <v>527176.0002320565</v>
       </c>
     </row>
   </sheetData>
@@ -11638,28 +11638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>374.9905104931115</v>
+        <v>506.5352468166052</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.0785598704234</v>
+        <v>693.0638714524146</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.1110622266709</v>
+        <v>626.9188282822482</v>
       </c>
       <c r="AD2" t="n">
-        <v>374990.5104931114</v>
+        <v>506535.2468166052</v>
       </c>
       <c r="AE2" t="n">
-        <v>513078.5598704234</v>
+        <v>693063.8714524145</v>
       </c>
       <c r="AF2" t="n">
         <v>8.770736892961883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.89120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>464111.0622266709</v>
+        <v>626918.8282822482</v>
       </c>
     </row>
     <row r="3">
@@ -11744,28 +11744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.6600266769124</v>
+        <v>414.002973924323</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.0587538524542</v>
+        <v>566.4571334454238</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.4917429584831</v>
+        <v>512.3952596569718</v>
       </c>
       <c r="AD3" t="n">
-        <v>310660.0266769124</v>
+        <v>414002.973924323</v>
       </c>
       <c r="AE3" t="n">
-        <v>425058.7538524542</v>
+        <v>566457.1334454238</v>
       </c>
       <c r="AF3" t="n">
         <v>1.015680886564194e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>384491.7429584831</v>
+        <v>512395.2596569718</v>
       </c>
     </row>
     <row r="4">
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.5922567926041</v>
+        <v>411.9352040400146</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.2295398731746</v>
+        <v>563.6279194661441</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.9325451905591</v>
+        <v>509.8360618890479</v>
       </c>
       <c r="AD4" t="n">
-        <v>308592.2567926041</v>
+        <v>411935.2040400147</v>
       </c>
       <c r="AE4" t="n">
-        <v>422229.5398731746</v>
+        <v>563627.9194661442</v>
       </c>
       <c r="AF4" t="n">
         <v>1.023275532655475e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.19907407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>381932.5451905591</v>
+        <v>509836.0618890479</v>
       </c>
     </row>
   </sheetData>
@@ -21208,28 +21208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.1246532655147</v>
+        <v>443.728942469638</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.4276029034725</v>
+        <v>607.1295150263006</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.0576702755106</v>
+        <v>549.1859262238161</v>
       </c>
       <c r="AD2" t="n">
-        <v>332124.6532655146</v>
+        <v>443728.942469638</v>
       </c>
       <c r="AE2" t="n">
-        <v>454427.6029034724</v>
+        <v>607129.5150263007</v>
       </c>
       <c r="AF2" t="n">
         <v>1.055780678251381e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>411057.6702755106</v>
+        <v>549185.9262238161</v>
       </c>
     </row>
     <row r="3">
@@ -21314,28 +21314,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.271077236616</v>
+        <v>409.9085208296627</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.1076466663657</v>
+        <v>560.8549220867877</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.1584256512065</v>
+        <v>507.327715487651</v>
       </c>
       <c r="AD3" t="n">
-        <v>298271.0772366159</v>
+        <v>409908.5208296627</v>
       </c>
       <c r="AE3" t="n">
-        <v>408107.6466663657</v>
+        <v>560854.9220867878</v>
       </c>
       <c r="AF3" t="n">
         <v>1.131506853190777e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.54629629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>369158.4256512065</v>
+        <v>507327.715487651</v>
       </c>
     </row>
   </sheetData>
@@ -21611,28 +21611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.981575281327</v>
+        <v>417.3762255145172</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.079781436101</v>
+        <v>571.0725650884849</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.0377812429179</v>
+        <v>516.5702009818182</v>
       </c>
       <c r="AD2" t="n">
-        <v>298981.575281327</v>
+        <v>417376.2255145172</v>
       </c>
       <c r="AE2" t="n">
-        <v>409079.781436101</v>
+        <v>571072.5650884849</v>
       </c>
       <c r="AF2" t="n">
         <v>1.379606526357253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.45601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>370037.7812429179</v>
+        <v>516570.2009818181</v>
       </c>
     </row>
   </sheetData>
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.4749692735554</v>
+        <v>694.3004471225453</v>
       </c>
       <c r="AB2" t="n">
-        <v>739.5016970328934</v>
+        <v>949.9725021270108</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.9246929652238</v>
+        <v>859.3084598187888</v>
       </c>
       <c r="AD2" t="n">
-        <v>540474.9692735554</v>
+        <v>694300.4471225453</v>
       </c>
       <c r="AE2" t="n">
-        <v>739501.6970328934</v>
+        <v>949972.5021270108</v>
       </c>
       <c r="AF2" t="n">
         <v>5.769698896740985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.41203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>668924.6929652238</v>
+        <v>859308.4598187888</v>
       </c>
     </row>
     <row r="3">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.4867706222204</v>
+        <v>519.518262702263</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.7542030933633</v>
+        <v>710.8278065574084</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.2408194999138</v>
+        <v>642.987398352661</v>
       </c>
       <c r="AD3" t="n">
-        <v>394486.7706222204</v>
+        <v>519518.262702263</v>
       </c>
       <c r="AE3" t="n">
-        <v>539754.2030933633</v>
+        <v>710827.8065574084</v>
       </c>
       <c r="AF3" t="n">
         <v>7.289400568370774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.86111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>488240.8194999138</v>
+        <v>642987.3983526609</v>
       </c>
     </row>
     <row r="4">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.5123851460755</v>
+        <v>468.3040178715411</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.0054382745706</v>
+        <v>640.754217366994</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.6673753936498</v>
+        <v>579.6015341656797</v>
       </c>
       <c r="AD4" t="n">
-        <v>362512.3851460755</v>
+        <v>468304.0178715411</v>
       </c>
       <c r="AE4" t="n">
-        <v>496005.4382745706</v>
+        <v>640754.217366994</v>
       </c>
       <c r="AF4" t="n">
         <v>7.866746272986852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.04398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>448667.3753936497</v>
+        <v>579601.5341656797</v>
       </c>
     </row>
     <row r="5">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.4736313968568</v>
+        <v>447.2310987035416</v>
       </c>
       <c r="AB5" t="n">
-        <v>467.2192872305808</v>
+        <v>611.9213196897565</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.6285342036816</v>
+        <v>553.5204077755316</v>
       </c>
       <c r="AD5" t="n">
-        <v>341473.6313968569</v>
+        <v>447231.0987035416</v>
       </c>
       <c r="AE5" t="n">
-        <v>467219.2872305809</v>
+        <v>611921.3196897565</v>
       </c>
       <c r="AF5" t="n">
         <v>8.139055516362865e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.26851851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>422628.5342036816</v>
+        <v>553520.4077755315</v>
       </c>
     </row>
     <row r="6">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.3032941270372</v>
+        <v>439.6801855960819</v>
       </c>
       <c r="AB6" t="n">
-        <v>443.726074276195</v>
+        <v>601.5898272533543</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.3774805207308</v>
+        <v>544.1749384769191</v>
       </c>
       <c r="AD6" t="n">
-        <v>324303.2941270372</v>
+        <v>439680.1855960819</v>
       </c>
       <c r="AE6" t="n">
-        <v>443726.074276195</v>
+        <v>601589.8272533544</v>
       </c>
       <c r="AF6" t="n">
         <v>8.287032649767312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>401377.4805207308</v>
+        <v>544174.9384769191</v>
       </c>
     </row>
     <row r="7">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.9139300004876</v>
+        <v>440.2908214695323</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.5615732176034</v>
+        <v>602.4253261947628</v>
       </c>
       <c r="AC7" t="n">
-        <v>402.1332406158013</v>
+        <v>544.9306985719895</v>
       </c>
       <c r="AD7" t="n">
-        <v>324913.9300004876</v>
+        <v>440290.8214695323</v>
       </c>
       <c r="AE7" t="n">
-        <v>444561.5732176034</v>
+        <v>602425.3261947627</v>
       </c>
       <c r="AF7" t="n">
         <v>8.28374426902499e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>402133.2406158013</v>
+        <v>544930.6985719895</v>
       </c>
     </row>
   </sheetData>
@@ -22735,28 +22735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.9399584375934</v>
+        <v>855.8618746662703</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.0096509162346</v>
+        <v>1171.027974879479</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.3960982674257</v>
+        <v>1059.266708505066</v>
       </c>
       <c r="AD2" t="n">
-        <v>670939.9584375934</v>
+        <v>855861.8746662703</v>
       </c>
       <c r="AE2" t="n">
-        <v>918009.6509162346</v>
+        <v>1171027.974879479</v>
       </c>
       <c r="AF2" t="n">
         <v>4.567985877922783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>830396.0982674257</v>
+        <v>1059266.708505066</v>
       </c>
     </row>
     <row r="3">
@@ -22841,28 +22841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.8752314153407</v>
+        <v>594.1496690979989</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.4850916520336</v>
+        <v>812.9417892933309</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.6942337821112</v>
+        <v>735.355765894142</v>
       </c>
       <c r="AD3" t="n">
-        <v>457875.2314153407</v>
+        <v>594149.6690979989</v>
       </c>
       <c r="AE3" t="n">
-        <v>626485.0916520336</v>
+        <v>812941.7892933309</v>
       </c>
       <c r="AF3" t="n">
         <v>6.1357371952126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.68981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>566694.2337821112</v>
+        <v>735355.765894142</v>
       </c>
     </row>
     <row r="4">
@@ -22947,28 +22947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>408.9300550699673</v>
+        <v>525.698680777782</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.5161420675097</v>
+        <v>719.2841272291355</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.1167067544232</v>
+        <v>650.6366596479991</v>
       </c>
       <c r="AD4" t="n">
-        <v>408930.0550699673</v>
+        <v>525698.680777782</v>
       </c>
       <c r="AE4" t="n">
-        <v>559516.1420675097</v>
+        <v>719284.1272291355</v>
       </c>
       <c r="AF4" t="n">
         <v>6.719965100365095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>506116.7067544232</v>
+        <v>650636.6596479991</v>
       </c>
     </row>
     <row r="5">
@@ -23053,28 +23053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.0882712632888</v>
+        <v>500.8227315523226</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.5265175210583</v>
+        <v>685.2477560494362</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.3710042699477</v>
+        <v>619.8486719633433</v>
       </c>
       <c r="AD5" t="n">
-        <v>384088.2712632888</v>
+        <v>500822.7315523226</v>
       </c>
       <c r="AE5" t="n">
-        <v>525526.5175210583</v>
+        <v>685247.7560494363</v>
       </c>
       <c r="AF5" t="n">
         <v>7.0482307191478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.24074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>475371.0042699476</v>
+        <v>619848.6719633434</v>
       </c>
     </row>
     <row r="6">
@@ -23159,28 +23159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.3260020731182</v>
+        <v>481.1277821698565</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.4869089652824</v>
+        <v>658.300257424502</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.912018004406</v>
+        <v>595.4730047861209</v>
       </c>
       <c r="AD6" t="n">
-        <v>364326.0020731182</v>
+        <v>481127.7821698565</v>
       </c>
       <c r="AE6" t="n">
-        <v>498486.9089652824</v>
+        <v>658300.2574245019</v>
       </c>
       <c r="AF6" t="n">
         <v>7.241511251586238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>450912.018004406</v>
+        <v>595473.0047861208</v>
       </c>
     </row>
     <row r="7">
@@ -23265,28 +23265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>356.7135924320977</v>
+        <v>463.7458893469524</v>
       </c>
       <c r="AB7" t="n">
-        <v>488.0712742586269</v>
+        <v>634.5175848292137</v>
       </c>
       <c r="AC7" t="n">
-        <v>441.4904368557185</v>
+        <v>573.9601170841362</v>
       </c>
       <c r="AD7" t="n">
-        <v>356713.5924320977</v>
+        <v>463745.8893469524</v>
       </c>
       <c r="AE7" t="n">
-        <v>488071.2742586269</v>
+        <v>634517.5848292137</v>
       </c>
       <c r="AF7" t="n">
         <v>7.382722065183281e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>441490.4368557185</v>
+        <v>573960.1170841362</v>
       </c>
     </row>
     <row r="8">
@@ -23371,28 +23371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>340.0374817644832</v>
+        <v>456.8050964424406</v>
       </c>
       <c r="AB8" t="n">
-        <v>465.2542839451169</v>
+        <v>625.0208857710885</v>
       </c>
       <c r="AC8" t="n">
-        <v>420.851068073883</v>
+        <v>565.3697696554179</v>
       </c>
       <c r="AD8" t="n">
-        <v>340037.4817644831</v>
+        <v>456805.0964424406</v>
       </c>
       <c r="AE8" t="n">
-        <v>465254.2839451169</v>
+        <v>625020.8857710885</v>
       </c>
       <c r="AF8" t="n">
         <v>7.482758182631287e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.88657407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>420851.068073883</v>
+        <v>565369.7696554179</v>
       </c>
     </row>
     <row r="9">
@@ -23477,28 +23477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>340.8561888322388</v>
+        <v>457.6238035101962</v>
       </c>
       <c r="AB9" t="n">
-        <v>466.3744750740269</v>
+        <v>626.1410768999986</v>
       </c>
       <c r="AC9" t="n">
-        <v>421.8643497336479</v>
+        <v>566.3830513151828</v>
       </c>
       <c r="AD9" t="n">
-        <v>340856.1888322388</v>
+        <v>457623.8035101962</v>
       </c>
       <c r="AE9" t="n">
-        <v>466374.4750740269</v>
+        <v>626141.0768999986</v>
       </c>
       <c r="AF9" t="n">
         <v>7.470589715728135e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>421864.3497336479</v>
+        <v>566383.0513151828</v>
       </c>
     </row>
   </sheetData>
@@ -23774,28 +23774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.909060297197</v>
+        <v>436.2902658867362</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.0312485214291</v>
+        <v>596.9515895543251</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.5623012941383</v>
+        <v>539.9793676740775</v>
       </c>
       <c r="AD2" t="n">
-        <v>309909.060297197</v>
+        <v>436290.2658867362</v>
       </c>
       <c r="AE2" t="n">
-        <v>424031.2485214291</v>
+        <v>596951.5895543251</v>
       </c>
       <c r="AF2" t="n">
         <v>1.488186822098433e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>383562.3012941383</v>
+        <v>539979.3676740775</v>
       </c>
     </row>
   </sheetData>
@@ -24071,28 +24071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.8377354210721</v>
+        <v>534.0070800494948</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.8121174328311</v>
+        <v>730.6520456533997</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.3388206111944</v>
+        <v>660.919639892825</v>
       </c>
       <c r="AD2" t="n">
-        <v>401837.7354210721</v>
+        <v>534007.0800494947</v>
       </c>
       <c r="AE2" t="n">
-        <v>549812.1174328311</v>
+        <v>730652.0456533997</v>
       </c>
       <c r="AF2" t="n">
         <v>8.076900269855744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>497338.8206111944</v>
+        <v>660919.639892825</v>
       </c>
     </row>
     <row r="3">
@@ -24177,28 +24177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.355693184249</v>
+        <v>434.6388220916426</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.6930366272964</v>
+        <v>594.6920112973197</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.7293503246392</v>
+        <v>537.9354403945827</v>
       </c>
       <c r="AD3" t="n">
-        <v>321355.693184249</v>
+        <v>434638.8220916426</v>
       </c>
       <c r="AE3" t="n">
-        <v>439693.0366272964</v>
+        <v>594692.0112973197</v>
       </c>
       <c r="AF3" t="n">
         <v>9.527972667734835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.73148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>397729.3503246392</v>
+        <v>537935.4403945827</v>
       </c>
     </row>
     <row r="4">
@@ -24283,28 +24283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.6967644884105</v>
+        <v>416.5036311463659</v>
       </c>
       <c r="AB4" t="n">
-        <v>427.8455083806766</v>
+        <v>569.8786429778335</v>
       </c>
       <c r="AC4" t="n">
-        <v>387.0125335457665</v>
+        <v>515.4902251217272</v>
       </c>
       <c r="AD4" t="n">
-        <v>312696.7644884105</v>
+        <v>416503.6311463659</v>
       </c>
       <c r="AE4" t="n">
-        <v>427845.5083806766</v>
+        <v>569878.6429778335</v>
       </c>
       <c r="AF4" t="n">
         <v>9.82252876191354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>387012.5335457665</v>
+        <v>515490.2251217272</v>
       </c>
     </row>
     <row r="5">
@@ -24389,28 +24389,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.3070609064436</v>
+        <v>417.113927564399</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.6805428642072</v>
+        <v>570.7136774613642</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.7678735101671</v>
+        <v>516.245565086128</v>
       </c>
       <c r="AD5" t="n">
-        <v>313307.0609064436</v>
+        <v>417113.927564399</v>
       </c>
       <c r="AE5" t="n">
-        <v>428680.5428642072</v>
+        <v>570713.6774613642</v>
       </c>
       <c r="AF5" t="n">
         <v>9.82234162335307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>387767.8735101671</v>
+        <v>516245.5650861279</v>
       </c>
     </row>
   </sheetData>
@@ -24686,28 +24686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.2154994394806</v>
+        <v>626.5397186763134</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.1567642963873</v>
+        <v>857.2592840745183</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.0568906512859</v>
+        <v>775.4436611734073</v>
       </c>
       <c r="AD2" t="n">
-        <v>483215.4994394806</v>
+        <v>626539.7186763134</v>
       </c>
       <c r="AE2" t="n">
-        <v>661156.7642963873</v>
+        <v>857259.2840745182</v>
       </c>
       <c r="AF2" t="n">
         <v>6.532603471806064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.52546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>598056.8906512859</v>
+        <v>775443.6611734073</v>
       </c>
     </row>
     <row r="3">
@@ -24792,28 +24792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.3600432566157</v>
+        <v>487.9520988383775</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.8476826663121</v>
+        <v>667.6375885579754</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.0930968118641</v>
+        <v>603.9191941412422</v>
       </c>
       <c r="AD3" t="n">
-        <v>373360.0432566156</v>
+        <v>487952.0988383775</v>
       </c>
       <c r="AE3" t="n">
-        <v>510847.6826663121</v>
+        <v>667637.5885579754</v>
       </c>
       <c r="AF3" t="n">
         <v>8.03432075078768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>462093.0968118641</v>
+        <v>603919.1941412422</v>
       </c>
     </row>
     <row r="4">
@@ -24898,28 +24898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.265095464724</v>
+        <v>449.7888202089243</v>
       </c>
       <c r="AB4" t="n">
-        <v>458.7244944669624</v>
+        <v>615.4209070921302</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.9444725389063</v>
+        <v>556.6859994679245</v>
       </c>
       <c r="AD4" t="n">
-        <v>335265.095464724</v>
+        <v>449788.8202089243</v>
       </c>
       <c r="AE4" t="n">
-        <v>458724.4944669624</v>
+        <v>615420.9070921302</v>
       </c>
       <c r="AF4" t="n">
         <v>8.580051342073163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.47685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>414944.4725389063</v>
+        <v>556685.9994679245</v>
       </c>
     </row>
     <row r="5">
@@ -25004,28 +25004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.9663577296549</v>
+        <v>430.5574022815596</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.3191100976208</v>
+        <v>589.1076326536299</v>
       </c>
       <c r="AC5" t="n">
-        <v>391.0591809935848</v>
+        <v>532.8840270109222</v>
       </c>
       <c r="AD5" t="n">
-        <v>315966.3577296549</v>
+        <v>430557.4022815596</v>
       </c>
       <c r="AE5" t="n">
-        <v>432319.1100976208</v>
+        <v>589107.63265363</v>
       </c>
       <c r="AF5" t="n">
         <v>8.81134113160118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.88657407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>391059.1809935849</v>
+        <v>532884.0270109222</v>
       </c>
     </row>
     <row r="6">
@@ -25110,28 +25110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.4623665870423</v>
+        <v>431.053411138947</v>
       </c>
       <c r="AB6" t="n">
-        <v>432.9977712986646</v>
+        <v>589.7862938546739</v>
       </c>
       <c r="AC6" t="n">
-        <v>391.673071722108</v>
+        <v>533.4979177394454</v>
       </c>
       <c r="AD6" t="n">
-        <v>316462.3665870423</v>
+        <v>431053.411138947</v>
       </c>
       <c r="AE6" t="n">
-        <v>432997.7712986646</v>
+        <v>589786.2938546739</v>
       </c>
       <c r="AF6" t="n">
         <v>8.812340943371474e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.88657407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>391673.0717221081</v>
+        <v>533497.9177394453</v>
       </c>
     </row>
   </sheetData>
